--- a/ImportEmployeeTemplate.xlsx
+++ b/ImportEmployeeTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Sô_la_mviê_cNa_y" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjnht\Desktop\Project Employee Manager\EmployeeResourcesManage\Employee Resources Manage\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjnht\Desktop\Project Employee Manager\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1191,8 +1191,8 @@
   <sheetPr codeName="Trang_tính1"/>
   <dimension ref="A1:BO703"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,6 +1257,7 @@
     <col min="64" max="64" width="20.875" style="6" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="13.875" style="6" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
